--- a/biology/Médecine/Faculté_de_médecine_de_Lille/Faculté_de_médecine_de_Lille.xlsx
+++ b/biology/Médecine/Faculté_de_médecine_de_Lille/Faculté_de_médecine_de_Lille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_de_Lille</t>
+          <t>Faculté_de_médecine_de_Lille</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Faculté de médecine Henri Warembourg ou Faculté de médecine de Lille est une unité de formation et de recherche située sur le campus du CHU de Lille. Elle appartient à l'université de Lille. Avec plus de 12 000 étudiants[1], il s'agit de la plus grande unité de formation et de recherche en médecine de France. Elle porte le nom d'Henri Warembourg, ancien doyen de la faculté. Elle fait partie de l'UFR3S : Sciences de la Santé et du Sport.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Faculté de médecine Henri Warembourg ou Faculté de médecine de Lille est une unité de formation et de recherche située sur le campus du CHU de Lille. Elle appartient à l'université de Lille. Avec plus de 12 000 étudiants, il s'agit de la plus grande unité de formation et de recherche en médecine de France. Elle porte le nom d'Henri Warembourg, ancien doyen de la faculté. Elle fait partie de l'UFR3S : Sciences de la Santé et du Sport.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_de_Lille</t>
+          <t>Faculté_de_médecine_de_Lille</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -508,14 +520,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Historique</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Doyens de la faculté</t>
-        </is>
-      </c>
+          <t>Formation et recherche</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -523,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_de_Lille</t>
+          <t>Faculté_de_médecine_de_Lille</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,10 +548,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Formation et recherche</t>
+          <t>Vie étudiante</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -549,7 +561,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_de_Lille</t>
+          <t>Faculté_de_médecine_de_Lille</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -564,36 +576,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Vie étudiante</t>
+          <t>Professeurs et étudiants célèbres</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_de_Lille</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Facult%C3%A9_de_m%C3%A9decine_de_Lille</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Professeurs et étudiants célèbres</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Iris Mittenaere (1993 - )  Miss France 2016 et Miss Univers 2016 en Odontologie</t>
         </is>
